--- a/02_개정판/6_Starbucks_Location/files/seoul_sgg_stat.xlsx
+++ b/02_개정판/6_Starbucks_Location/files/seoul_sgg_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,22 +50,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,22 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>종사자수_x</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>사업체수_x</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>종사자수_y</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>사업체수_y</t>
+          <t>사업체수</t>
         </is>
       </c>
     </row>
@@ -506,20 +495,18 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>371,095</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>68669</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18455</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68669</v>
-      </c>
-      <c r="J2" t="n">
-        <v>18455</v>
+          <t>329,300</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>74,314</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>18,894</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -542,20 +529,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>474,165</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>87693</v>
-      </c>
-      <c r="H3" t="n">
-        <v>24179</v>
-      </c>
-      <c r="I3" t="n">
-        <v>87693</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24179</v>
+          <t>485,842</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>90,049</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>24,873</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -578,20 +563,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>374,039</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>143858</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32994</v>
-      </c>
-      <c r="I4" t="n">
-        <v>143858</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32994</v>
+          <t>358,679</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>140,748</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>31,878</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -614,20 +597,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>407,966</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>103915</v>
-      </c>
-      <c r="H5" t="n">
-        <v>19609</v>
-      </c>
-      <c r="I5" t="n">
-        <v>103915</v>
-      </c>
-      <c r="J5" t="n">
-        <v>19609</v>
+          <t>404,617</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>112,564</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>19,916</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -650,20 +631,18 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>262,337</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>223058</v>
-      </c>
-      <c r="H6" t="n">
-        <v>30080</v>
-      </c>
-      <c r="I6" t="n">
-        <v>223058</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30080</v>
+          <t>249,641</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>234,012</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>32,472</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -686,20 +665,18 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>449,187</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>210506</v>
-      </c>
-      <c r="H7" t="n">
-        <v>37445</v>
-      </c>
-      <c r="I7" t="n">
-        <v>210506</v>
-      </c>
-      <c r="J7" t="n">
-        <v>37445</v>
+          <t>435,751</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>218,070</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>38,553</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -722,20 +699,18 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>177,023</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>269106</v>
-      </c>
-      <c r="H8" t="n">
-        <v>40871</v>
-      </c>
-      <c r="I8" t="n">
-        <v>269106</v>
-      </c>
-      <c r="J8" t="n">
-        <v>40871</v>
+          <t>159,842</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>265,017</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>39,952</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -748,7 +723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37.64699539999999</v>
+        <v>37.6469954</v>
       </c>
       <c r="D9" t="n">
         <v>127.0147158</v>
@@ -758,20 +733,18 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>342,669</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>69787</v>
-      </c>
-      <c r="H9" t="n">
-        <v>18654</v>
-      </c>
-      <c r="I9" t="n">
-        <v>69787</v>
-      </c>
-      <c r="J9" t="n">
-        <v>18654</v>
+          <t>313,550</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>72,418</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>18,918</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -794,20 +767,18 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>431,283</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>99241</v>
-      </c>
-      <c r="H10" t="n">
-        <v>27287</v>
-      </c>
-      <c r="I10" t="n">
-        <v>99241</v>
-      </c>
-      <c r="J10" t="n">
-        <v>27287</v>
+          <t>400,989</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>103,016</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>28,024</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -830,20 +801,18 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>570,913</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>711278</v>
-      </c>
-      <c r="H11" t="n">
-        <v>73590</v>
-      </c>
-      <c r="I11" t="n">
-        <v>711278</v>
-      </c>
-      <c r="J11" t="n">
-        <v>73590</v>
+          <t>544,085</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>694,136</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>71,373</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -866,20 +835,18 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>578,257</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>199289</v>
-      </c>
-      <c r="H12" t="n">
-        <v>33273</v>
-      </c>
-      <c r="I12" t="n">
-        <v>199289</v>
-      </c>
-      <c r="J12" t="n">
-        <v>33273</v>
+          <t>589,536</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>248,204</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>38,524</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -892,7 +859,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37.55794520000001</v>
+        <v>37.5579452</v>
       </c>
       <c r="D13" t="n">
         <v>126.9941904</v>
@@ -902,20 +869,18 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>138,102</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>423808</v>
-      </c>
-      <c r="H13" t="n">
-        <v>66190</v>
-      </c>
-      <c r="I13" t="n">
-        <v>423808</v>
-      </c>
-      <c r="J13" t="n">
-        <v>66190</v>
+          <t>135,321</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>390,530</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>60,957</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -938,20 +903,18 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>490,945</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>143061</v>
-      </c>
-      <c r="H14" t="n">
-        <v>30079</v>
-      </c>
-      <c r="I14" t="n">
-        <v>143061</v>
-      </c>
-      <c r="J14" t="n">
-        <v>30079</v>
+          <t>462,275</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>145,990</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>29,772</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -974,20 +937,18 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>386,292</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>123689</v>
-      </c>
-      <c r="H15" t="n">
-        <v>24531</v>
-      </c>
-      <c r="I15" t="n">
-        <v>123689</v>
-      </c>
-      <c r="J15" t="n">
-        <v>24531</v>
+          <t>361,923</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>127,879</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1010,20 +971,18 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>392,087</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>252534</v>
-      </c>
-      <c r="H16" t="n">
-        <v>36504</v>
-      </c>
-      <c r="I16" t="n">
-        <v>252534</v>
-      </c>
-      <c r="J16" t="n">
-        <v>36504</v>
+          <t>383,494</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>255,152</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>37,232</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1046,20 +1005,18 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>432,888</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>439963</v>
-      </c>
-      <c r="H17" t="n">
-        <v>47061</v>
-      </c>
-      <c r="I17" t="n">
-        <v>439963</v>
-      </c>
-      <c r="J17" t="n">
-        <v>47061</v>
+          <t>429,995</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>438,733</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>46,540</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1082,20 +1039,18 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>484,359</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>113893</v>
-      </c>
-      <c r="H18" t="n">
-        <v>24690</v>
-      </c>
-      <c r="I18" t="n">
-        <v>113893</v>
-      </c>
-      <c r="J18" t="n">
-        <v>24690</v>
+          <t>449,871</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>108,201</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>23,287</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1118,20 +1073,18 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>614,603</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>114736</v>
-      </c>
-      <c r="H19" t="n">
-        <v>25827</v>
-      </c>
-      <c r="I19" t="n">
-        <v>114736</v>
-      </c>
-      <c r="J19" t="n">
-        <v>25827</v>
+          <t>529,532</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>118,713</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>26,616</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1154,20 +1107,18 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>689,909</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>302517</v>
-      </c>
-      <c r="H20" t="n">
-        <v>45375</v>
-      </c>
-      <c r="I20" t="n">
-        <v>302517</v>
-      </c>
-      <c r="J20" t="n">
-        <v>45375</v>
+          <t>676,673</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>342,853</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>47,772</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1190,20 +1141,18 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>336,490</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>111615</v>
-      </c>
-      <c r="H21" t="n">
-        <v>19612</v>
-      </c>
-      <c r="I21" t="n">
-        <v>111615</v>
-      </c>
-      <c r="J21" t="n">
-        <v>19612</v>
+          <t>323,860</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>109,490</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19,796</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1226,20 +1175,18 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>504,928</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>119443</v>
-      </c>
-      <c r="H22" t="n">
-        <v>26297</v>
-      </c>
-      <c r="I22" t="n">
-        <v>119443</v>
-      </c>
-      <c r="J22" t="n">
-        <v>26297</v>
+          <t>460,048</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>123,311</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>26,126</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1262,20 +1209,18 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>440,863</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>362524</v>
-      </c>
-      <c r="H23" t="n">
-        <v>44512</v>
-      </c>
-      <c r="I23" t="n">
-        <v>362524</v>
-      </c>
-      <c r="J23" t="n">
-        <v>44512</v>
+          <t>405,982</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>367,557</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>42,589</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1288,7 +1233,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>37.46539929999999</v>
+        <v>37.4653993</v>
       </c>
       <c r="D24" t="n">
         <v>126.9438071</v>
@@ -1298,20 +1243,18 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>546,814</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>119180</v>
-      </c>
-      <c r="H24" t="n">
-        <v>26235</v>
-      </c>
-      <c r="I24" t="n">
-        <v>119180</v>
-      </c>
-      <c r="J24" t="n">
-        <v>26235</v>
+          <t>514,555</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>113,944</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>26,105</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1324,7 +1267,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>37.55067529999999</v>
+        <v>37.5506753</v>
       </c>
       <c r="D25" t="n">
         <v>127.0409622</v>
@@ -1334,20 +1277,18 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>316,113</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>162019</v>
-      </c>
-      <c r="H25" t="n">
-        <v>26130</v>
-      </c>
-      <c r="I25" t="n">
-        <v>162019</v>
-      </c>
-      <c r="J25" t="n">
-        <v>26130</v>
+          <t>302,695</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>174,819</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>27,868</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1370,23 +1311,21 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>250,844</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>133446</v>
-      </c>
-      <c r="H26" t="n">
-        <v>21178</v>
-      </c>
-      <c r="I26" t="n">
-        <v>133446</v>
-      </c>
-      <c r="J26" t="n">
-        <v>21178</v>
+          <t>244,953</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>141,216</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20,813</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>